--- a/data/trans_orig/P14A26-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A26-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A64582B0-9BCF-4E8F-B2BC-07A51F0AB2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB11BE6A-CB6F-4C09-A589-0EB5026E2E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{60CACD91-E619-4F38-9FA7-7E65845E4E22}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8111B03D-B67E-4389-9635-7B8D5CB99E15}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="203">
   <si>
     <t>Población que recibe medicación o terapia por hipoacusia en 2012 (Tasa respuesta: 1,6%)</t>
   </si>
@@ -99,49 +99,49 @@
     <t>14,08%</t>
   </si>
   <si>
-    <t>54,84%</t>
+    <t>55,41%</t>
   </si>
   <si>
     <t>27,09%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>58,03%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
   </si>
   <si>
     <t>20,64%</t>
   </si>
   <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
   </si>
   <si>
     <t>85,92%</t>
   </si>
   <si>
-    <t>45,16%</t>
+    <t>44,59%</t>
   </si>
   <si>
     <t>72,91%</t>
   </si>
   <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>79,36%</t>
   </si>
   <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -150,10 +150,10 @@
     <t>29,66%</t>
   </si>
   <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
   </si>
   <si>
     <t>40,57%</t>
@@ -168,19 +168,19 @@
     <t>35,64%</t>
   </si>
   <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
   </si>
   <si>
     <t>70,34%</t>
   </si>
   <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
   </si>
   <si>
     <t>59,43%</t>
@@ -195,10 +195,10 @@
     <t>64,36%</t>
   </si>
   <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -213,19 +213,16 @@
     <t>26,47%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
+    <t>58,01%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
   </si>
   <si>
     <t>86,02%</t>
@@ -237,19 +234,16 @@
     <t>73,53%</t>
   </si>
   <si>
-    <t>38,55%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>41,99%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -258,10 +252,10 @@
     <t>36,3%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
   </si>
   <si>
     <t>25,94%</t>
@@ -276,19 +270,19 @@
     <t>30,68%</t>
   </si>
   <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
   </si>
   <si>
     <t>63,7%</t>
   </si>
   <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
   </si>
   <si>
     <t>74,06%</t>
@@ -303,64 +297,64 @@
     <t>69,32%</t>
   </si>
   <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>51,63%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
   </si>
   <si>
     <t>69,85%</t>
   </si>
   <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -393,7 +387,7 @@
     <t>22,75%</t>
   </si>
   <si>
-    <t>62,48%</t>
+    <t>59,41%</t>
   </si>
   <si>
     <t>36,14%</t>
@@ -408,16 +402,16 @@
     <t>30,55%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
   </si>
   <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>37,52%</t>
+    <t>40,59%</t>
   </si>
   <si>
     <t>63,86%</t>
@@ -432,64 +426,64 @@
     <t>69,45%</t>
   </si>
   <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
   </si>
   <si>
     <t>35,19%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
   </si>
   <si>
     <t>31,51%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
   </si>
   <si>
     <t>32,63%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
   </si>
   <si>
     <t>64,81%</t>
   </si>
   <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
   </si>
   <si>
     <t>68,49%</t>
   </si>
   <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
   </si>
   <si>
     <t>67,37%</t>
   </si>
   <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
   </si>
   <si>
     <t>42,93%</t>
@@ -504,19 +498,19 @@
     <t>41,13%</t>
   </si>
   <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
   </si>
   <si>
     <t>41,84%</t>
   </si>
   <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
   </si>
   <si>
     <t>57,07%</t>
@@ -531,127 +525,127 @@
     <t>58,87%</t>
   </si>
   <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
   <si>
     <t>58,16%</t>
   </si>
   <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
   </si>
   <si>
     <t>44,38%</t>
   </si>
   <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
   </si>
   <si>
     <t>44,57%</t>
   </si>
   <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
   </si>
   <si>
     <t>44,48%</t>
   </si>
   <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
   </si>
   <si>
     <t>55,62%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
   </si>
   <si>
     <t>55,43%</t>
   </si>
   <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
   </si>
   <si>
     <t>55,52%</t>
   </si>
   <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
+    <t>39,95%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
   </si>
   <si>
     <t>38,4%</t>
   </si>
   <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
   </si>
   <si>
     <t>61,6%</t>
   </si>
   <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7695DD3-FA44-4676-BF9E-BBCD8F334952}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD5C83-CC55-4F06-9047-712EDE02AF86}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1664,10 +1658,10 @@
         <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1676,13 +1670,13 @@
         <v>4442</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1697,10 +1691,10 @@
         <v>6257</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>13</v>
@@ -1712,13 +1706,13 @@
         <v>9513</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -1727,13 +1721,13 @@
         <v>15771</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1789,7 +1783,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1801,13 +1795,13 @@
         <v>5889</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -1816,13 +1810,13 @@
         <v>4995</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -1831,13 +1825,13 @@
         <v>10884</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,13 +1846,13 @@
         <v>10333</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>14</v>
@@ -1867,13 +1861,13 @@
         <v>14260</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -1882,13 +1876,13 @@
         <v>24593</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,13 +1950,13 @@
         <v>13809</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -1971,13 +1965,13 @@
         <v>18895</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -1986,13 +1980,13 @@
         <v>32704</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2007,13 +2001,13 @@
         <v>38968</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>40</v>
@@ -2022,13 +2016,13 @@
         <v>43785</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>74</v>
@@ -2037,13 +2031,13 @@
         <v>82752</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2099,7 +2093,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2120,7 +2114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA95DE9F-C4BA-4A04-85D4-9E59B02172AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B080AD0F-A30D-419C-A445-B4F4A5EACF86}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2137,7 +2131,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2244,7 +2238,7 @@
         <v>691</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -2262,7 +2256,7 @@
         <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>17</v>
@@ -2274,7 +2268,7 @@
         <v>1588</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
@@ -2295,7 +2289,7 @@
         <v>1994</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -2313,10 +2307,10 @@
         <v>12</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -2325,7 +2319,7 @@
         <v>1994</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
@@ -2399,13 +2393,13 @@
         <v>1705</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2414,13 +2408,13 @@
         <v>3778</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -2429,13 +2423,13 @@
         <v>5483</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,10 +2444,10 @@
         <v>5790</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
@@ -2465,13 +2459,13 @@
         <v>6675</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -2480,13 +2474,13 @@
         <v>12464</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,13 +2548,13 @@
         <v>3773</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2569,13 +2563,13 @@
         <v>7765</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2584,13 +2578,13 @@
         <v>11539</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2605,13 +2599,13 @@
         <v>6950</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -2620,13 +2614,13 @@
         <v>16876</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -2635,13 +2629,13 @@
         <v>23826</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,13 +2703,13 @@
         <v>4326</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -2724,13 +2718,13 @@
         <v>6344</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -2739,13 +2733,13 @@
         <v>10670</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,13 +2754,13 @@
         <v>5752</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -2775,13 +2769,13 @@
         <v>9080</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -2790,13 +2784,13 @@
         <v>14832</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,7 +2846,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2864,13 +2858,13 @@
         <v>8014</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2879,13 +2873,13 @@
         <v>9248</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -2894,13 +2888,13 @@
         <v>17262</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2909,13 @@
         <v>10042</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -2930,13 +2924,13 @@
         <v>11503</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -2945,13 +2939,13 @@
         <v>21545</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3013,13 @@
         <v>18510</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -3034,13 +3028,13 @@
         <v>28032</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -3049,13 +3043,13 @@
         <v>46542</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3064,13 @@
         <v>30527</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H20" s="7">
         <v>39</v>
@@ -3085,13 +3079,13 @@
         <v>44134</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M20" s="7">
         <v>68</v>
@@ -3100,13 +3094,13 @@
         <v>74661</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,7 +3156,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A26-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A26-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB11BE6A-CB6F-4C09-A589-0EB5026E2E96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F47BC05F-6348-43D1-AB00-FF364E053DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8111B03D-B67E-4389-9635-7B8D5CB99E15}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A7B5C4F-40B9-433C-B46E-040601FE642E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -93,157 +93,157 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>14,08%</t>
   </si>
   <si>
-    <t>55,41%</t>
+    <t>55,67%</t>
   </si>
   <si>
     <t>27,09%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
   </si>
   <si>
     <t>20,64%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
   </si>
   <si>
     <t>85,92%</t>
   </si>
   <si>
-    <t>44,59%</t>
+    <t>44,33%</t>
   </si>
   <si>
     <t>72,91%</t>
   </si>
   <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>79,36%</t>
   </si>
   <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>29,66%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
   </si>
   <si>
     <t>40,57%</t>
   </si>
   <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
   </si>
   <si>
     <t>35,64%</t>
   </si>
   <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
   </si>
   <si>
     <t>70,34%</t>
   </si>
   <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>59,43%</t>
   </si>
   <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
   </si>
   <si>
     <t>64,36%</t>
   </si>
   <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>13,98%</t>
   </si>
   <si>
-    <t>54,35%</t>
+    <t>66,39%</t>
   </si>
   <si>
     <t>26,47%</t>
   </si>
   <si>
-    <t>58,01%</t>
+    <t>56,88%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
   </si>
   <si>
     <t>86,02%</t>
   </si>
   <si>
-    <t>45,65%</t>
+    <t>33,61%</t>
   </si>
   <si>
     <t>73,53%</t>
   </si>
   <si>
-    <t>41,99%</t>
+    <t>43,12%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -252,115 +252,115 @@
     <t>36,3%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
   </si>
   <si>
     <t>30,68%</t>
   </si>
   <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
   </si>
   <si>
     <t>63,7%</t>
   </si>
   <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
   </si>
   <si>
     <t>74,06%</t>
   </si>
   <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
   </si>
   <si>
     <t>69,32%</t>
   </si>
   <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>69,85%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por hipoacusia en 2015 (Tasa respuesta: 1,75%)</t>
+    <t>Población que recibe medicación o terapia por hipoacusia en 2016 (Tasa respuesta: 1,75%)</t>
   </si>
   <si>
     <t>25,74%</t>
@@ -387,265 +387,265 @@
     <t>22,75%</t>
   </si>
   <si>
-    <t>59,41%</t>
+    <t>62,47%</t>
   </si>
   <si>
     <t>36,14%</t>
   </si>
   <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
   </si>
   <si>
     <t>30,55%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
   </si>
   <si>
     <t>77,25%</t>
   </si>
   <si>
-    <t>40,59%</t>
+    <t>37,53%</t>
   </si>
   <si>
     <t>63,86%</t>
   </si>
   <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
   </si>
   <si>
     <t>69,45%</t>
   </si>
   <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
   </si>
   <si>
     <t>35,19%</t>
   </si>
   <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
   </si>
   <si>
     <t>31,51%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
   </si>
   <si>
     <t>32,63%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
   </si>
   <si>
     <t>64,81%</t>
   </si>
   <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
   </si>
   <si>
     <t>68,49%</t>
   </si>
   <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
   </si>
   <si>
     <t>67,37%</t>
   </si>
   <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
   </si>
   <si>
     <t>42,93%</t>
   </si>
   <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
   </si>
   <si>
     <t>41,13%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
   </si>
   <si>
     <t>41,84%</t>
   </si>
   <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
   </si>
   <si>
     <t>57,07%</t>
   </si>
   <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
   </si>
   <si>
     <t>58,87%</t>
   </si>
   <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
   </si>
   <si>
     <t>58,16%</t>
   </si>
   <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
   </si>
   <si>
     <t>44,38%</t>
   </si>
   <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
   </si>
   <si>
     <t>44,57%</t>
   </si>
   <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
   </si>
   <si>
     <t>44,48%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
   </si>
   <si>
     <t>55,62%</t>
   </si>
   <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
   </si>
   <si>
     <t>55,43%</t>
   </si>
   <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
   </si>
   <si>
     <t>55,52%</t>
   </si>
   <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
   </si>
   <si>
     <t>38,4%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
   </si>
   <si>
     <t>61,6%</t>
   </si>
   <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBD5C83-CC55-4F06-9047-712EDE02AF86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F55CBFB-01F3-45A7-88FD-B3006BBA4FE0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1658,7 +1658,7 @@
         <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>58</v>
@@ -1712,7 +1712,7 @@
         <v>65</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M14" s="7">
         <v>13</v>
@@ -2114,7 +2114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B080AD0F-A30D-419C-A445-B4F4A5EACF86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C944B0-2C79-4CA0-B60B-6285B1F93E5A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
